--- a/Jacobi_PRJ/results/Results.xlsx
+++ b/Jacobi_PRJ/results/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{190B9747-2BC3-497E-8990-5FC3C9389948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A200CA7-556D-40F2-A9A5-4A712F2EE394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E6A18E8-5D55-4A8B-83CD-FF57F63F5146}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6E6A18E8-5D55-4A8B-83CD-FF57F63F5146}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,26 +33,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="5">
   <si>
     <t>usec</t>
   </si>
   <si>
-    <t>Non Optimized</t>
+    <t>Sequential Computation</t>
   </si>
   <si>
-    <t>Optimized -O3</t>
+    <t>Parallel computation (thread pool)</t>
   </si>
   <si>
-    <t>Local machine with n=3 e iterations=100</t>
+    <t>Local machine with n=1000 and iterations=100</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,11 +91,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -401,458 +417,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623B873-8BBE-480C-A3BD-DA138C5A5E8E}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>4728</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B4">
+        <v>97747</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>2053</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="E4">
+        <v>25247</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>4182</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B5">
+        <v>101470</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1854</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="E5">
+        <v>25386</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>4446</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B6">
+        <v>101048</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>2593</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="E6">
+        <v>23960</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1347</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B7">
+        <v>97247</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>3578</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="E7">
+        <v>24255</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1022</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="B8">
+        <v>100219</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>2780</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="E8">
+        <v>24633</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>6162</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="B9">
+        <v>110638</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>2670</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="E9">
+        <v>24360</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1057</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="B10">
+        <v>95937</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>1832</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="E10">
+        <v>24471</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>10685</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="B11">
+        <v>97093</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>1265</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="E11">
+        <v>24449</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>2965</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="B12">
+        <v>99799</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>1079</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="E12">
+        <v>24587</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="B13">
+        <v>96026</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>2198</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="E13">
+        <v>24230</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>2377</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="B14">
+        <v>98726</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>1662</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="E14">
+        <v>24584</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>6421</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="B15">
+        <v>102409</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="E14">
-        <v>2966</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="E15">
+        <v>24551</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1006</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="B16">
+        <v>106749</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>13</v>
       </c>
-      <c r="E15">
-        <v>985</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="E16">
+        <v>25652</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>2570</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="B17">
+        <v>98177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>14</v>
       </c>
-      <c r="E16">
-        <v>1541</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="E17">
+        <v>24576</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>4928</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="B18">
+        <v>99095</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>15</v>
       </c>
-      <c r="E17">
-        <v>1303</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="E18">
+        <v>25985</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1509</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="B19">
+        <v>94748</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>2926</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="E19">
+        <v>23994</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>926</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="B20">
+        <v>105254</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>17</v>
       </c>
-      <c r="E19">
-        <v>1937</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="E20">
+        <v>24026</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1652</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="B21">
+        <v>95905</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>18</v>
       </c>
-      <c r="E20">
-        <v>2823</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="E21">
+        <v>24329</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1652</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="B22">
+        <v>96552</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>19</v>
       </c>
-      <c r="E21">
-        <v>2433</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="E22">
+        <v>24636</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>5676</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="B23">
+        <v>98539</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>20</v>
       </c>
-      <c r="E22">
-        <v>1701</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <f>AVERAGE(B3:B22)</f>
-        <v>3371.45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
       <c r="E23">
-        <f>AVERAGE(E3:E22)</f>
-        <v>2108.9499999999998</v>
+        <v>24278</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4">
+        <f>AVERAGE(B4:B23)</f>
+        <v>99668.9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4">
+        <f>AVERAGE(E4:E23)</f>
+        <v>24609.45</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>